--- a/IrbAnalyser/Team.xlsx
+++ b/IrbAnalyser/Team.xlsx
@@ -15,12 +15,121 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+  <si>
+    <t>StudyId</t>
+  </si>
+  <si>
+    <t>StudySiteID</t>
+  </si>
+  <si>
+    <t>IRBAgency</t>
+  </si>
+  <si>
+    <t>IRBNumber</t>
+  </si>
+  <si>
+    <t>TeamMemberID</t>
+  </si>
+  <si>
+    <t>PrimaryEmailAdress</t>
+  </si>
+  <si>
+    <t>OtherEmailAdresses</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>BRANY</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Romero</t>
+  </si>
+  <si>
+    <t>romero@bou.com</t>
+  </si>
+  <si>
+    <t>Micheal</t>
+  </si>
+  <si>
+    <t>Chricton</t>
+  </si>
+  <si>
+    <t>micheal@gmail.com</t>
+  </si>
+  <si>
+    <t>Sylvain</t>
+  </si>
+  <si>
+    <t>sylvain.bouchard@einstein.yu.edu</t>
+  </si>
+  <si>
+    <t>Bouchard</t>
+  </si>
+  <si>
+    <t>Coordinator</t>
+  </si>
+  <si>
+    <t>Albert Einstein Col. of Med. of Yeshiva University</t>
+  </si>
+  <si>
+    <t>Westchester Cardiology</t>
+  </si>
+  <si>
+    <t>Montefiore (Einstein Liver Center)</t>
+  </si>
+  <si>
+    <t>Shanta</t>
+  </si>
+  <si>
+    <t>Bethusamy</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>shantha.bethusamy@einstein.yu.edu</t>
+  </si>
+  <si>
+    <t>Faculty Advisor</t>
+  </si>
+  <si>
+    <t>CRO</t>
+  </si>
+  <si>
+    <t>Shantha</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -43,13 +152,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -349,12 +461,263 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>12345</v>
+      </c>
+      <c r="B2">
+        <v>632132</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>12345</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>12345</v>
+      </c>
+      <c r="B3">
+        <v>632132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>12345</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>12345</v>
+      </c>
+      <c r="B4">
+        <v>632132</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>12345</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4564654</v>
+      </c>
+      <c r="B5">
+        <v>64654</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>123465498</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>54321</v>
+      </c>
+      <c r="B6">
+        <v>5432122</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>54321</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>54321</v>
+      </c>
+      <c r="B7">
+        <v>5432122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>54321</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G5" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F3" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
